--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemensapc-my.sharepoint.com/personal/sheetal_kolar_siemens_com/Documents/Desktop/Learn_JAVA_Jatin/automation-assignment/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4DB114E441178AC67DF4195E96C32E683EDF39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B379F3B4-D26E-46E6-87B8-0D37E42F4AF3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4DB114E441178AC67DF4195E96C32E683EDF39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F054CBDA-2488-4486-8547-574111309FD8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>emailAddress</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>kopit20941@kudimi.com</t>
+  </si>
+  <si>
+    <t>Diya@gmail.com</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>Siya@gmail.com</t>
+  </si>
+  <si>
+    <t>siya</t>
   </si>
 </sst>
 </file>
@@ -86,6 +98,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,6 +395,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemensapc-my.sharepoint.com/personal/sheetal_kolar_siemens_com/Documents/Desktop/Learn_JAVA_Jatin/automation-assignment/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4DB114E441178AC67DF4195E96C32E683EDF39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F054CBDA-2488-4486-8547-574111309FD8}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4DB114E441178AC67DF4195E96C32E683EDF39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73DD4179-8C0D-46CC-A815-5950CE8F8DCB}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>emailAddress</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>kopit20941@kudimi.com</t>
-  </si>
-  <si>
-    <t>Diya@gmail.com</t>
-  </si>
-  <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>Siya@gmail.com</t>
-  </si>
-  <si>
-    <t>siya</t>
   </si>
 </sst>
 </file>
@@ -98,10 +86,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -395,22 +379,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
